--- a/data/trans_orig/Q4506_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4506_R-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>70703</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54981</v>
+        <v>53804</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88667</v>
+        <v>88581</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07261389264788501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05646696571385184</v>
+        <v>0.05525851255956448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09106427902331554</v>
+        <v>0.09097605151154864</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>271</v>
@@ -763,19 +763,19 @@
         <v>290170</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>257910</v>
+        <v>258424</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>322169</v>
+        <v>321629</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2170936187631829</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1929574427678072</v>
+        <v>0.1933421838119186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2410335192146549</v>
+        <v>0.2406295045695365</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>335</v>
@@ -784,19 +784,19 @@
         <v>360873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>329136</v>
+        <v>325424</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396381</v>
+        <v>394178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1562023046107568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1424651517549225</v>
+        <v>0.1408585604655032</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1715718932644735</v>
+        <v>0.1706184134982759</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>74569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58263</v>
+        <v>57910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92163</v>
+        <v>94088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07658494541383194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05983840944603604</v>
+        <v>0.05947520379263856</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09465486216556059</v>
+        <v>0.0966311520805707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>139</v>
@@ -834,19 +834,19 @@
         <v>147536</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>122806</v>
+        <v>125176</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170514</v>
+        <v>172354</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1103807136046112</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09187867399742573</v>
+        <v>0.09365163631796669</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1275719511173657</v>
+        <v>0.1289482532790423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>210</v>
@@ -855,19 +855,19 @@
         <v>222105</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197617</v>
+        <v>191301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256606</v>
+        <v>249989</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09613740907145416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08553753913961061</v>
+        <v>0.08280380510557826</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1110706638810524</v>
+        <v>0.1082068675704459</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>106268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88524</v>
+        <v>88548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129315</v>
+        <v>127661</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1091409022484731</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09091749156248137</v>
+        <v>0.09094216654735396</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1328110926095048</v>
+        <v>0.131112036738115</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>169</v>
@@ -905,19 +905,19 @@
         <v>180979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>156878</v>
+        <v>157519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>205670</v>
+        <v>206021</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1354013267905946</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1173693571474807</v>
+        <v>0.1178490732278895</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1538742432082765</v>
+        <v>0.1541365416565297</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>270</v>
@@ -926,19 +926,19 @@
         <v>287247</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>258253</v>
+        <v>256911</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>324373</v>
+        <v>319854</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1243338102360966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1117836429029675</v>
+        <v>0.1112028706951241</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1404034950249679</v>
+        <v>0.138447706738169</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>80049</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62435</v>
+        <v>63602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98382</v>
+        <v>99699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08221256365400285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06412306050848146</v>
+        <v>0.06532149383973258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1010412783484889</v>
+        <v>0.1023947032606597</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -976,19 +976,19 @@
         <v>95320</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77662</v>
+        <v>76647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114996</v>
+        <v>116185</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07131479348940643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0581034238955315</v>
+        <v>0.05734420599290111</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08603534618362109</v>
+        <v>0.08692523979275253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -997,19 +997,19 @@
         <v>175369</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149617</v>
+        <v>150117</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201102</v>
+        <v>199207</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07590768388652572</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06476092024227367</v>
+        <v>0.06497754446301997</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0870461775133835</v>
+        <v>0.08622610633753049</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>642090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>610986</v>
+        <v>611297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>672795</v>
+        <v>674877</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6594476960358071</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6275027121957063</v>
+        <v>0.6278228868314301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6909832324643846</v>
+        <v>0.6931213491579938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -1047,19 +1047,19 @@
         <v>622608</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>585536</v>
+        <v>587470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>660834</v>
+        <v>665869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.465809547352205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4380741645895809</v>
+        <v>0.439520899369181</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4944090413595625</v>
+        <v>0.4981757782761447</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1174</v>
@@ -1068,19 +1068,19 @@
         <v>1264697</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1212931</v>
+        <v>1213825</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1311339</v>
+        <v>1312867</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5474187921951668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5250122240467398</v>
+        <v>0.5253990229455822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5676075903579556</v>
+        <v>0.5682692971065446</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>153390</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130061</v>
+        <v>129579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178163</v>
+        <v>179663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07828981509084249</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06638281396318763</v>
+        <v>0.066136815147842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09093432042339629</v>
+        <v>0.09169971126883127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>293</v>
@@ -1193,19 +1193,19 @@
         <v>318324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>286699</v>
+        <v>285996</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>351551</v>
+        <v>350748</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1816433866863657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1635974117641972</v>
+        <v>0.1631959136885155</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.200603541822431</v>
+        <v>0.2001450064990644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>438</v>
@@ -1214,19 +1214,19 @@
         <v>471714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>426708</v>
+        <v>428651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>511250</v>
+        <v>517120</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1270876292104658</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1149623862923474</v>
+        <v>0.1154858146797994</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1377393864522688</v>
+        <v>0.1393208545411944</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>171614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148011</v>
+        <v>147434</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>202237</v>
+        <v>199325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08759147894510506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07554438990118829</v>
+        <v>0.07525001165174523</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1032215455026816</v>
+        <v>0.1017350924277144</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>255</v>
@@ -1264,19 +1264,19 @@
         <v>270744</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>242641</v>
+        <v>241545</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303741</v>
+        <v>304021</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1544930958075293</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1384566576199266</v>
+        <v>0.1378312975830807</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1733219061827753</v>
+        <v>0.173481637100285</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>415</v>
@@ -1285,19 +1285,19 @@
         <v>442358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>405492</v>
+        <v>400602</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>489031</v>
+        <v>479971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1191787053327052</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1092463957768928</v>
+        <v>0.1079289763602269</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1317530966796007</v>
+        <v>0.1293123365369577</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>297181</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>266416</v>
+        <v>265355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>333844</v>
+        <v>332892</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1516806629041069</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1359785411363593</v>
+        <v>0.1354366615428139</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1703935740087227</v>
+        <v>0.1699073736106637</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>367</v>
@@ -1335,19 +1335,19 @@
         <v>385482</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>348778</v>
+        <v>352191</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>419828</v>
+        <v>423061</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2199648794580184</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1990210636360362</v>
+        <v>0.2009684279085043</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.239563465083143</v>
+        <v>0.2414085255730798</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>649</v>
@@ -1356,19 +1356,19 @@
         <v>682662</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>629140</v>
+        <v>636855</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>729458</v>
+        <v>731208</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1839206760479411</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1695008517210495</v>
+        <v>0.1715794831428996</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1965282840161338</v>
+        <v>0.1969995515655141</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>283536</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>256220</v>
+        <v>251219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>318098</v>
+        <v>314966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1447165412089008</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1307745201580237</v>
+        <v>0.1282216885263695</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1623570199964049</v>
+        <v>0.1607581070371041</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1406,19 +1406,19 @@
         <v>163667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140327</v>
+        <v>140067</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189682</v>
+        <v>189619</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09339232841303241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0800738466611586</v>
+        <v>0.07992551954566657</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1082368491130001</v>
+        <v>0.1082009099555043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>429</v>
@@ -1427,19 +1427,19 @@
         <v>447203</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>408935</v>
+        <v>405164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>486962</v>
+        <v>487096</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1204840995314111</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1101739071774028</v>
+        <v>0.109158058939305</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1311956283736241</v>
+        <v>0.131231844712028</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>1053532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1007989</v>
+        <v>1006562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1100419</v>
+        <v>1104926</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5377215018510447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5144761039307209</v>
+        <v>0.5137479985564032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5616521613377475</v>
+        <v>0.5639525139141656</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>560</v>
@@ -1477,19 +1477,19 @@
         <v>614251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>568771</v>
+        <v>574346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>655066</v>
+        <v>652922</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3505063096350541</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3245542858216016</v>
+        <v>0.3277351931627961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3737958196395411</v>
+        <v>0.3725724848217091</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1550</v>
@@ -1498,19 +1498,19 @@
         <v>1667784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1608828</v>
+        <v>1595851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1733149</v>
+        <v>1727102</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4493288898774768</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4334452382107597</v>
+        <v>0.429948840233859</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4669393388811639</v>
+        <v>0.4653102889992425</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>43355</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32091</v>
+        <v>31431</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59697</v>
+        <v>58399</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09027568865070683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06682128539107121</v>
+        <v>0.06544593255140259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1243040704120443</v>
+        <v>0.1215997176681869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -1623,19 +1623,19 @@
         <v>99180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81452</v>
+        <v>80569</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118860</v>
+        <v>119610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2171850030976407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1783647474703874</v>
+        <v>0.1764307408737353</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2602812260688889</v>
+        <v>0.2619243873698096</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1644,19 +1644,19 @@
         <v>142535</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>121927</v>
+        <v>120277</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169234</v>
+        <v>167168</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1521325474185385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1301367731992698</v>
+        <v>0.1283758800734056</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1806295786309242</v>
+        <v>0.1784249061162656</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>71006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55069</v>
+        <v>55472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>91152</v>
+        <v>91185</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1478510303091168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1146666158926578</v>
+        <v>0.1155054566619777</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1898006717769769</v>
+        <v>0.1898699753129879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1694,19 +1694,19 @@
         <v>100726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83830</v>
+        <v>82479</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120177</v>
+        <v>119720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2205705423641437</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1835721793445778</v>
+        <v>0.1806135792390233</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2631658367467666</v>
+        <v>0.2621641519474384</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -1715,19 +1715,19 @@
         <v>171731</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>147732</v>
+        <v>148895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198655</v>
+        <v>197460</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1832952418428125</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1576798782476832</v>
+        <v>0.1589213354107863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.212031910250751</v>
+        <v>0.2107559897014547</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>110740</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92062</v>
+        <v>91069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>131610</v>
+        <v>132151</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.230587141913646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1916960658152579</v>
+        <v>0.1896274795555996</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2740431554943192</v>
+        <v>0.2751710210199665</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -1765,19 +1765,19 @@
         <v>88262</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72745</v>
+        <v>70825</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107108</v>
+        <v>106973</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1932772507669995</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1592978943869095</v>
+        <v>0.1550944129704774</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2345455284780394</v>
+        <v>0.2342516264912789</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>179</v>
@@ -1786,19 +1786,19 @@
         <v>199002</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>171304</v>
+        <v>172349</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>227788</v>
+        <v>223837</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2124019308646468</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1828395306495322</v>
+        <v>0.1839547055575365</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2431264157300304</v>
+        <v>0.2389098905681818</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>76873</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61407</v>
+        <v>60555</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94656</v>
+        <v>93790</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1600690028409814</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1278640423490243</v>
+        <v>0.1260902786662722</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1970955830438271</v>
+        <v>0.1952928073361355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1836,19 +1836,19 @@
         <v>47490</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34761</v>
+        <v>34732</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63967</v>
+        <v>62851</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1039938010986422</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07612088179371912</v>
+        <v>0.07605613464953684</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1400756542680791</v>
+        <v>0.1376315237358138</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -1857,19 +1857,19 @@
         <v>124363</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>103433</v>
+        <v>101772</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>147218</v>
+        <v>147086</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1327373932607884</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1103981842589998</v>
+        <v>0.1086255376949137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1571310373303738</v>
+        <v>0.1569902053524638</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>178278</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157295</v>
+        <v>156968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>202171</v>
+        <v>201582</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.371217136285549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3275250292869918</v>
+        <v>0.326844507080672</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4209691092498681</v>
+        <v>0.4197411928347803</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>110</v>
@@ -1907,19 +1907,19 @@
         <v>121003</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>102677</v>
+        <v>102130</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141789</v>
+        <v>140390</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2649734026725739</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2248441111167097</v>
+        <v>0.2236466121146359</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3104910353696625</v>
+        <v>0.3074273481291042</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>273</v>
@@ -1928,19 +1928,19 @@
         <v>299280</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267245</v>
+        <v>269230</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>330141</v>
+        <v>329136</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3194328866132137</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2852403001344908</v>
+        <v>0.2873587516513465</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3523713913515411</v>
+        <v>0.3512986567391125</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>267447</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>234505</v>
+        <v>236378</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>303539</v>
+        <v>302075</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07835711753327371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06870571716735113</v>
+        <v>0.06925442667528771</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08893141556234122</v>
+        <v>0.08850249662360492</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>653</v>
@@ -2053,19 +2053,19 @@
         <v>707674</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>660315</v>
+        <v>659474</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>757394</v>
+        <v>757408</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1995842550168627</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1862274987829982</v>
+        <v>0.1859904340999591</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2136065230663508</v>
+        <v>0.2136105829323075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>899</v>
@@ -2074,19 +2074,19 @@
         <v>975122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>914230</v>
+        <v>914258</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1040147</v>
+        <v>1039709</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1401253122085433</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1313751971505674</v>
+        <v>0.1313791846662569</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1494695251456614</v>
+        <v>0.1494065021488146</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>317189</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>284307</v>
+        <v>284200</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>357823</v>
+        <v>356155</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09293046339615579</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08329674253031068</v>
+        <v>0.08326547733965563</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1048354665132123</v>
+        <v>0.10434693427237</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>484</v>
@@ -2124,19 +2124,19 @@
         <v>519007</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>480156</v>
+        <v>476409</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>564334</v>
+        <v>562672</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1463745446866903</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1354175005259486</v>
+        <v>0.134360821011626</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1591582674741993</v>
+        <v>0.1586894601063536</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>778</v>
@@ -2145,19 +2145,19 @@
         <v>836195</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>778325</v>
+        <v>782562</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>894618</v>
+        <v>893212</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1201615313395159</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1118455859827659</v>
+        <v>0.1124544188252776</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1285568545990324</v>
+        <v>0.1283549504007296</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>514189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>475905</v>
+        <v>474413</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>559619</v>
+        <v>562370</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1506478860939818</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1394316155019557</v>
+        <v>0.1389943843118598</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1639581129275407</v>
+        <v>0.1647640650425395</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>615</v>
@@ -2195,19 +2195,19 @@
         <v>654723</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>607595</v>
+        <v>606269</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>702299</v>
+        <v>695468</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1846504211141275</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1713591184727761</v>
+        <v>0.1709850538321342</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.198068195138107</v>
+        <v>0.1961418020161984</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1098</v>
@@ -2216,19 +2216,19 @@
         <v>1168912</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1111469</v>
+        <v>1104060</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1232928</v>
+        <v>1235792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1679730102054156</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1597184540203891</v>
+        <v>0.1586538587936622</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1771722422245553</v>
+        <v>0.1775836903333505</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>440458</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>401918</v>
+        <v>400251</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>482097</v>
+        <v>481756</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1290462141777741</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1177545790247692</v>
+        <v>0.1172663101086329</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1412457641570529</v>
+        <v>0.141145730136246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>287</v>
@@ -2266,19 +2266,19 @@
         <v>306477</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>268484</v>
+        <v>273383</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>339140</v>
+        <v>340391</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08643528963594722</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07571997545982402</v>
+        <v>0.07710182519902391</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09564697238918035</v>
+        <v>0.09599994020535281</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>710</v>
@@ -2287,19 +2287,19 @@
         <v>746936</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>695241</v>
+        <v>697709</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>800332</v>
+        <v>799150</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1073349048370822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09990638808473848</v>
+        <v>0.1002610522939597</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1150079247598349</v>
+        <v>0.1148381959758114</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>1873899</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1814920</v>
+        <v>1810725</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1937725</v>
+        <v>1937138</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5490183187988146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5317382806551264</v>
+        <v>0.5305092169395654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5677179253426936</v>
+        <v>0.5675460638805478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1248</v>
@@ -2337,19 +2337,19 @@
         <v>1357862</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1298907</v>
+        <v>1300096</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1421967</v>
+        <v>1417152</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3829554895463723</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3663284655371384</v>
+        <v>0.3666638993579597</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4010350993725257</v>
+        <v>0.3996770869278375</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2997</v>
@@ -2358,19 +2358,19 @@
         <v>3231761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3146976</v>
+        <v>3141022</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3319469</v>
+        <v>3317694</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4644052414094429</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4522216075243508</v>
+        <v>0.4513660060518481</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4770088638991941</v>
+        <v>0.4767538073717391</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>40833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30503</v>
+        <v>29378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54722</v>
+        <v>53576</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0543362153232154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04059088534866263</v>
+        <v>0.03909292880516035</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07281870380242507</v>
+        <v>0.07129349053051523</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -2722,19 +2722,19 @@
         <v>155460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132558</v>
+        <v>131390</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>180186</v>
+        <v>180168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1568871857223846</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1337750671315824</v>
+        <v>0.1325962072290942</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1818395739078096</v>
+        <v>0.1818218198361187</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -2743,19 +2743,19 @@
         <v>196293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>170770</v>
+        <v>172310</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226970</v>
+        <v>227298</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1126575370546613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09800949556766518</v>
+        <v>0.09889319130384</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1302636545086566</v>
+        <v>0.1304521178027037</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>85305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69874</v>
+        <v>69256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104683</v>
+        <v>107426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1135151400239097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09298145757981792</v>
+        <v>0.09215932986286278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1393022542629025</v>
+        <v>0.1429519400049001</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -2793,19 +2793,19 @@
         <v>175415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147899</v>
+        <v>150722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>199820</v>
+        <v>200989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1770249023476351</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1492565033700539</v>
+        <v>0.1521051665978275</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2016535994441717</v>
+        <v>0.2028339793246628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -2814,19 +2814,19 @@
         <v>260719</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232436</v>
+        <v>230556</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>295474</v>
+        <v>291282</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1496335040642724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.133400861084026</v>
+        <v>0.1323219559483248</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1695799854635894</v>
+        <v>0.1671739463250514</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>70858</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56371</v>
+        <v>56668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87530</v>
+        <v>87765</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09429104220771486</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07501257242781051</v>
+        <v>0.07540852321053655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.116476425010341</v>
+        <v>0.1167895167386947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>140</v>
@@ -2864,19 +2864,19 @@
         <v>151447</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127399</v>
+        <v>128308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>176047</v>
+        <v>175402</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1528374546243005</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1285683551113058</v>
+        <v>0.1294860649223789</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1776631874412769</v>
+        <v>0.1770116155493086</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>212</v>
@@ -2885,19 +2885,19 @@
         <v>222305</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>194958</v>
+        <v>196367</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>250106</v>
+        <v>254194</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1275867208490675</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1118914567014648</v>
+        <v>0.1126999660051512</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1435422796282687</v>
+        <v>0.1458884316805606</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>75191</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58911</v>
+        <v>60438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91532</v>
+        <v>94094</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.100056630456018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07839295721378792</v>
+        <v>0.08042489530301208</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1218017371620329</v>
+        <v>0.1252118023063334</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -2935,19 +2935,19 @@
         <v>75254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58609</v>
+        <v>59828</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93209</v>
+        <v>95274</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07594454985389981</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05914686604657088</v>
+        <v>0.06037731515880064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09406475819014293</v>
+        <v>0.09614835838509397</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -2956,19 +2956,19 @@
         <v>150445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128321</v>
+        <v>129376</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173784</v>
+        <v>175883</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08634395270234084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07364671709797274</v>
+        <v>0.07425223764758891</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0997391760847636</v>
+        <v>0.1009436001458813</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>479296</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>451722</v>
+        <v>453331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>504569</v>
+        <v>502446</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6378009719891421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6011077219214517</v>
+        <v>0.6032491245929125</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6714322869839444</v>
+        <v>0.6686061732146683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>384</v>
@@ -3006,19 +3006,19 @@
         <v>433329</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402871</v>
+        <v>401405</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>467806</v>
+        <v>466419</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4373059074517801</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4065686088571487</v>
+        <v>0.4050897612938358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4720998811198343</v>
+        <v>0.4706996385347867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>870</v>
@@ -3027,19 +3027,19 @@
         <v>912624</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>870150</v>
+        <v>871564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>955394</v>
+        <v>955511</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.523778285329658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4994012274567868</v>
+        <v>0.5002125343008004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5483249591365698</v>
+        <v>0.548391867711076</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>198208</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171396</v>
+        <v>171168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>228168</v>
+        <v>228256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09607648309519899</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08308032705593849</v>
+        <v>0.0829696258383148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.110598889014132</v>
+        <v>0.1106415755388473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>392</v>
@@ -3152,19 +3152,19 @@
         <v>413086</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>378846</v>
+        <v>380143</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>453154</v>
+        <v>450771</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2086770374129471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1913800375490343</v>
+        <v>0.1920350777979378</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.228918154854001</v>
+        <v>0.2277139929716312</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>575</v>
@@ -3173,19 +3173,19 @@
         <v>611294</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>568754</v>
+        <v>565505</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>656988</v>
+        <v>659099</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.15121424702056</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1406912079926769</v>
+        <v>0.1398874581473449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1625174450772878</v>
+        <v>0.1630397433069377</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>412973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>380111</v>
+        <v>377537</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>452017</v>
+        <v>450406</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2001788231854484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1842497009804858</v>
+        <v>0.1830017960626307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2191042211168436</v>
+        <v>0.2183234748400698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>566</v>
@@ -3223,19 +3223,19 @@
         <v>588788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>550135</v>
+        <v>548897</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>636832</v>
+        <v>632203</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2974354802053263</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2779095335034921</v>
+        <v>0.2772838667274394</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3217056694609951</v>
+        <v>0.319367324955704</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>954</v>
@@ -3244,19 +3244,19 @@
         <v>1001761</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>948804</v>
+        <v>947016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1060001</v>
+        <v>1058712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2478030522793774</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2347031276516627</v>
+        <v>0.2342610315167907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2622097825593471</v>
+        <v>0.2618909973522917</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>361255</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>328229</v>
+        <v>329311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>397219</v>
+        <v>395277</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.175109913230347</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1591011788528309</v>
+        <v>0.1596257030449009</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1925422631605458</v>
+        <v>0.1916012141467991</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>355</v>
@@ -3294,19 +3294,19 @@
         <v>365136</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>333143</v>
+        <v>330465</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>404074</v>
+        <v>398412</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1844544076800524</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1682923689500634</v>
+        <v>0.1669394455412547</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2041245360126531</v>
+        <v>0.2012642276460193</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>699</v>
@@ -3315,19 +3315,19 @@
         <v>726392</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>676132</v>
+        <v>677929</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>774617</v>
+        <v>776159</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1796856858106112</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1672529280956357</v>
+        <v>0.1676976808179564</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1916149435389247</v>
+        <v>0.1919963569391258</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>264007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>233517</v>
+        <v>233081</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>294912</v>
+        <v>297332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1279710645380703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1131915496711384</v>
+        <v>0.1129805973142837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1429514438174826</v>
+        <v>0.1441244710265173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>175</v>
@@ -3365,19 +3365,19 @@
         <v>177251</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>152723</v>
+        <v>154372</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200680</v>
+        <v>205591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08954126472581452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07715029185918527</v>
+        <v>0.07798325348687751</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1013765031701135</v>
+        <v>0.1038577686796043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>420</v>
@@ -3386,19 +3386,19 @@
         <v>441258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>399214</v>
+        <v>403258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>479311</v>
+        <v>481491</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.109152922455327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09875256628913739</v>
+        <v>0.09975289386858452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1185659020963256</v>
+        <v>0.1191052343652863</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>826578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>778412</v>
+        <v>779919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>868780</v>
+        <v>876084</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4006637159509353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3773163333177944</v>
+        <v>0.3780468878005615</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4211204152521362</v>
+        <v>0.4246605790759309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>413</v>
@@ -3436,19 +3436,19 @@
         <v>435286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>399002</v>
+        <v>398021</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>473072</v>
+        <v>473797</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2198918099758597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2015621208255796</v>
+        <v>0.201066653469977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2389800393692991</v>
+        <v>0.2393459722048445</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1192</v>
@@ -3457,19 +3457,19 @@
         <v>1261864</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1208515</v>
+        <v>1202467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1321456</v>
+        <v>1324690</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3121440924341245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2989472169465486</v>
+        <v>0.2974510873367359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3268852507333154</v>
+        <v>0.3276852042147132</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>93193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76947</v>
+        <v>76850</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114890</v>
+        <v>114427</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.171013027355807</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1412012091168196</v>
+        <v>0.1410231863680206</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2108282010004437</v>
+        <v>0.20997849339073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -3582,19 +3582,19 @@
         <v>168611</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149188</v>
+        <v>147731</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>192822</v>
+        <v>190758</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3070456201662331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2716759605670688</v>
+        <v>0.2690223668569588</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3511336961650068</v>
+        <v>0.3473752156325737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -3603,19 +3603,19 @@
         <v>261804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233510</v>
+        <v>231785</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>293019</v>
+        <v>291906</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2392899746426969</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2134289184749563</v>
+        <v>0.2118519981816833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.267819940932116</v>
+        <v>0.266802592199276</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>146140</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125982</v>
+        <v>124781</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167949</v>
+        <v>166290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2681721886636774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.23118161694858</v>
+        <v>0.2289773107425322</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3081932960910001</v>
+        <v>0.3051480950072475</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -3653,19 +3653,19 @@
         <v>150731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129466</v>
+        <v>130824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>172355</v>
+        <v>175207</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2744854658321781</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2357615276740001</v>
+        <v>0.2382352085735442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3138642998059287</v>
+        <v>0.3190576612797003</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>281</v>
@@ -3674,19 +3674,19 @@
         <v>296871</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263876</v>
+        <v>266922</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>327331</v>
+        <v>327281</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.271340924064038</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2411834459900588</v>
+        <v>0.2439678734130379</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2991819812196652</v>
+        <v>0.2991357809524774</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>100537</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82239</v>
+        <v>81514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>121591</v>
+        <v>121091</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1844893644133547</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1509124514672731</v>
+        <v>0.1495819175283851</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2231232247211959</v>
+        <v>0.222206158809386</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>106</v>
@@ -3724,19 +3724,19 @@
         <v>106568</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88670</v>
+        <v>89170</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128248</v>
+        <v>126704</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1940632605857936</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1614699237594287</v>
+        <v>0.1623816267249433</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2335430893535766</v>
+        <v>0.230731330395281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>196</v>
@@ -3745,19 +3745,19 @@
         <v>207105</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>184076</v>
+        <v>179829</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>235157</v>
+        <v>234321</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.189294656959728</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1682463390510862</v>
+        <v>0.1643644667881827</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2149343003230357</v>
+        <v>0.2141699163472896</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>58429</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44342</v>
+        <v>45152</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74544</v>
+        <v>72778</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1072187336141535</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08136887727156344</v>
+        <v>0.08285499153033661</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1367902280083129</v>
+        <v>0.1335511865103931</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -3795,19 +3795,19 @@
         <v>33845</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24292</v>
+        <v>24154</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47325</v>
+        <v>45989</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06163258128906266</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04423660068255485</v>
+        <v>0.04398534328894837</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08617992478949411</v>
+        <v>0.08374774111849925</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -3816,19 +3816,19 @@
         <v>92274</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76453</v>
+        <v>75208</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113106</v>
+        <v>112906</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0843383102170203</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06987839590517361</v>
+        <v>0.06874014545886514</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1033790481994806</v>
+        <v>0.1031966480259672</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>146649</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126677</v>
+        <v>125374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>170117</v>
+        <v>168917</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2691066859530075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2324574274866566</v>
+        <v>0.2300659073096522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3121715349157844</v>
+        <v>0.3099694510154328</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -3866,19 +3866,19 @@
         <v>89385</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72484</v>
+        <v>72521</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106479</v>
+        <v>107020</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1627730721267326</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1319960944120578</v>
+        <v>0.1320633889732895</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1939019445139347</v>
+        <v>0.1948869362875712</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>216</v>
@@ -3887,19 +3887,19 @@
         <v>236034</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>208486</v>
+        <v>208694</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265487</v>
+        <v>264455</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2157361341165168</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1905572413474814</v>
+        <v>0.1907468917571661</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2426558727125143</v>
+        <v>0.2417124108889694</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>332234</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>297715</v>
+        <v>298645</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>368935</v>
+        <v>370157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09889523204846186</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0886202549460845</v>
+        <v>0.08889712949891816</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1098200293676717</v>
+        <v>0.1101838334786979</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>687</v>
@@ -4012,19 +4012,19 @@
         <v>737158</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>690407</v>
+        <v>693534</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>785129</v>
+        <v>788251</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2094439754875896</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1961610449560784</v>
+        <v>0.1970493732134585</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2230737006003846</v>
+        <v>0.2239607923026676</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>996</v>
@@ -4033,19 +4033,19 @@
         <v>1069391</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1015458</v>
+        <v>1003314</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1139911</v>
+        <v>1128020</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1554563886069533</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1476161814214001</v>
+        <v>0.1458508436766444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1657078274724875</v>
+        <v>0.1639791307417123</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>644417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>599532</v>
+        <v>601811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>689642</v>
+        <v>693460</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1918222942749807</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1784614509679669</v>
+        <v>0.1791397868140978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2052842520343353</v>
+        <v>0.2064206491906962</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>868</v>
@@ -4083,19 +4083,19 @@
         <v>914934</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>865436</v>
+        <v>866387</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>969760</v>
+        <v>965103</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2599543733663351</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2458909926927405</v>
+        <v>0.2461610388647033</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2755316546963374</v>
+        <v>0.2742085265001813</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1478</v>
@@ -4104,19 +4104,19 @@
         <v>1559351</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1491164</v>
+        <v>1490651</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1627770</v>
+        <v>1632226</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2266813896591229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2167690993962428</v>
+        <v>0.2166945409014177</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2366274291739568</v>
+        <v>0.237275125115349</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>532650</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>491769</v>
+        <v>493542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>576512</v>
+        <v>573980</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1585528628289174</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.14638382667385</v>
+        <v>0.1469116552169679</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1716090352090433</v>
+        <v>0.1708554667494171</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>601</v>
@@ -4154,19 +4154,19 @@
         <v>623152</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>577533</v>
+        <v>576371</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>666927</v>
+        <v>668957</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1770521894718334</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1640908662479391</v>
+        <v>0.1637607811474188</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1894898552245366</v>
+        <v>0.1900664224768325</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1107</v>
@@ -4175,19 +4175,19 @@
         <v>1155802</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1089483</v>
+        <v>1091036</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1219754</v>
+        <v>1220001</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1680178578883393</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1583771645821115</v>
+        <v>0.1586027962645642</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1773144342658661</v>
+        <v>0.1773503219903862</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>397626</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>362109</v>
+        <v>361076</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>437749</v>
+        <v>440225</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1183605285230486</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1077882250878287</v>
+        <v>0.1074806252323666</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1303038979710153</v>
+        <v>0.1310409389021495</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>278</v>
@@ -4225,19 +4225,19 @@
         <v>286350</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>254416</v>
+        <v>251417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>321353</v>
+        <v>317725</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08135883139873201</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07228568243890551</v>
+        <v>0.07143358977216401</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09130404916960162</v>
+        <v>0.09027312386405401</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>654</v>
@@ -4246,19 +4246,19 @@
         <v>683976</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>635561</v>
+        <v>631886</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>738560</v>
+        <v>738587</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09942898105475233</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09239091014048868</v>
+        <v>0.09185661864256348</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1073637932750939</v>
+        <v>0.1073676998599601</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>1452522</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1393381</v>
+        <v>1395884</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1515381</v>
+        <v>1512043</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4323690823245914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.414764573852007</v>
+        <v>0.4155096946400599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4510800249692893</v>
+        <v>0.4500866104279418</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>882</v>
@@ -4296,19 +4296,19 @@
         <v>958001</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>903789</v>
+        <v>908070</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1007718</v>
+        <v>1016417</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2721906302755099</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2567879387342913</v>
+        <v>0.2580041207338234</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2863165889249515</v>
+        <v>0.2887880052785614</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2278</v>
@@ -4317,19 +4317,19 @@
         <v>2410523</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2332614</v>
+        <v>2335335</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2489707</v>
+        <v>2504647</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3504153827908321</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.339089800280392</v>
+        <v>0.3394853861449047</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3619263026206914</v>
+        <v>0.3640980836566038</v>
       </c>
     </row>
     <row r="27">
